--- a/5_analisis_de_resultados/output/df_shapiro_wilk.xlsx
+++ b/5_analisis_de_resultados/output/df_shapiro_wilk.xlsx
@@ -518,17 +518,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.7772607427969134</v>
+        <v>0.7768102000473506</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007666487558042206</v>
+        <v>0.007570218972748491</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77726074 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.7768102 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -565,17 +565,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.8564767286607332</v>
+        <v>0.9521887273173472</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06933510492142424</v>
+        <v>0.6944328449303087</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85647673 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.95218873 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -612,17 +612,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9647168173421562</v>
+        <v>0.9356371854884801</v>
       </c>
       <c r="H4" t="n">
-        <v>0.838013851916712</v>
+        <v>0.5055630353821505</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96471682 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93563719 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -659,17 +659,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.9392416536791484</v>
+        <v>0.8992185730453035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5446063346530275</v>
+        <v>0.2148056073056672</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93924165 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89921857 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -706,17 +706,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.7772607427969134</v>
+        <v>0.8375911803871547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007666487558042206</v>
+        <v>0.04128545995271724</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77726074 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.83759118 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -753,17 +753,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8564767286607332</v>
+        <v>0.9521887273173472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06933510492142424</v>
+        <v>0.6944328449303087</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85647673 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.95218873 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -800,17 +800,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9647168173421562</v>
+        <v>0.9356371854884801</v>
       </c>
       <c r="H8" t="n">
-        <v>0.838013851916712</v>
+        <v>0.5055630353821505</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96471682 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93563719 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -847,17 +847,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9392416536791484</v>
+        <v>0.8992185730453035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5446063346530275</v>
+        <v>0.2148056073056672</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93924165 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89921857 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -894,17 +894,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.769915727746427</v>
+        <v>0.7775903189667805</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006239045709891785</v>
+        <v>0.007737682158510123</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.76991573 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77759032 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -941,17 +941,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7686015112010294</v>
+        <v>0.8050593057509345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006013215074024494</v>
+        <v>0.0167024454285141</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.76860151 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.80505931 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -988,17 +988,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9166276582159391</v>
+        <v>0.8337804864202975</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3296844394417464</v>
+        <v>0.03715601964171076</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91662766 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.83378049 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1035,17 +1035,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.8562682621028864</v>
+        <v>0.9347048694464335</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06894235674208257</v>
+        <v>0.4957276737662157</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.85626826 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93470487 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1082,17 +1082,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.8148527641058028</v>
+        <v>0.8202971812137182</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0219557492612943</v>
+        <v>0.02555259900318504</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.81485276 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.82029718 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7940723638097001</v>
+        <v>0.794072363809861</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01228158215431824</v>
+        <v>0.01228158215437354</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1176,17 +1176,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.8021764667789045</v>
+        <v>0.8407373547917039</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01540880986712576</v>
+        <v>0.04503086241949766</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.80217647 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.84073735 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1223,17 +1223,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7559923899217174</v>
+        <v>0.7134007010652721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.004221755405517599</v>
+        <v>0.001280703098040726</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8401293256980022</v>
+        <v>0.2215616359610455</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.75599239 y un valor p corregido 0.84012933 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.7134007 y un valor p corregido 0.22156164 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1270,17 +1270,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.944998411334892</v>
+        <v>0.7534965694214371</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6098443195783988</v>
+        <v>0.003936340754960341</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.6416235430585355</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.94499841 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.75349657 y un valor p corregido 0.64162354 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1317,17 +1317,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7897821571279731</v>
+        <v>0.8049134651822203</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01089072683443153</v>
+        <v>0.01663448523913206</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.78978216 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.80491347 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1364,17 +1364,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9284255494558058</v>
+        <v>0.9635830648465527</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4325856936234334</v>
+        <v>0.8258260535014865</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.92842555 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96358306 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1411,17 +1411,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9334607344019341</v>
+        <v>0.9281437139688192</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4827816286872234</v>
+        <v>0.4298840169055627</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93346073 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.92814371 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1458,17 +1458,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9202058407291398</v>
+        <v>0.8454236195603795</v>
       </c>
       <c r="H22" t="n">
-        <v>0.358674885346409</v>
+        <v>0.05123273732186739</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.92020584 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.84542362 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1505,17 +1505,17 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8537145909903725</v>
+        <v>0.7981716834950879</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0643024465275267</v>
+        <v>0.01377532916106709</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85371459 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.79817168 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1552,17 +1552,17 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9151979326174912</v>
+        <v>0.9564168222764245</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3186363332895047</v>
+        <v>0.7443722685990987</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91519793 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95641682 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1599,17 +1599,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9283122027631998</v>
+        <v>0.9666143968760599</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4314977462532114</v>
+        <v>0.857803823385375</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9283122 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9666144 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1646,17 +1646,17 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7505300173259537</v>
+        <v>0.8553262640060123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003622119226634677</v>
+        <v>0.06719429090195979</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7352902030068394</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.75053002 y un valor p corregido 0.7352902 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.85532626 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1693,17 +1693,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8482412172055084</v>
+        <v>0.9183902288862466</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05535454828284472</v>
+        <v>0.3437242621874024</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.84824122 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91839023 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1740,17 +1740,17 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8764771456911761</v>
+        <v>0.8456281483889423</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1188546409452602</v>
+        <v>0.05152159177910716</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.87647715 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.84562815 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1787,17 +1787,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9587117442445672</v>
+        <v>0.9389352707558927</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7710886707913436</v>
+        <v>0.5412278687314587</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95871174 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93893527 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1834,17 +1834,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8871232876836231</v>
+        <v>0.8959790097410854</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1573496338382664</v>
+        <v>0.1978044591520803</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.88712329 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.89597901 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1881,17 +1881,17 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9083836593429973</v>
+        <v>0.9396756986085434</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2700720160817089</v>
+        <v>0.5494104462753532</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.90838366 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9396757 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1928,17 +1928,17 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9191573635139103</v>
+        <v>0.7853469778887259</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3499805771975807</v>
+        <v>0.0096176893758289</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91915736 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.78534698 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1975,17 +1975,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9173503518922808</v>
+        <v>0.9330638668917455</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3353848175634143</v>
+        <v>0.4786958929271301</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.91735035 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93306387 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2069,17 +2069,17 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5941861519864218</v>
+        <v>0.5941861519866645</v>
       </c>
       <c r="H35" t="n">
-        <v>4.715093618953695e-05</v>
+        <v>4.715093618985079e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01117090959931035</v>
+        <v>0.01112377495965081</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.59418615 y un valor p corregido 0.01117091 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.59418615 y un valor p corregido 0.01112377 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2116,17 +2116,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6515405913913965</v>
+        <v>0.6857887471817516</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0002290302906472677</v>
+        <v>0.000592808511378508</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05061739931637366</v>
+        <v>0.1067055320481314</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.65154059 y un valor p corregido 0.0506174 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.68578875 y un valor p corregido 0.10670553 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7308780632703848</v>
+        <v>0.6496887307091794</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002088295759527957</v>
+        <v>0.0002175832184269369</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4260123349437032</v>
+        <v>0.04830347449078</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.73087806 y un valor p corregido 0.42601233 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.64968873 y un valor p corregido 0.04830347 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6132659024299043</v>
+        <v>0.735870251644552</v>
       </c>
       <c r="H38" t="n">
-        <v>7.963076795157028e-05</v>
+        <v>0.002401674516219623</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01839470739681274</v>
+        <v>0.4001614722452094</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.6132659 y un valor p corregido 0.01839471 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.73587025 y un valor p corregido 0.40016147 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6714243938859668</v>
+        <v>0.85059568604078</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0003975679556878139</v>
+        <v>0.05904473018074687</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08547711047287999</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.67142439 y un valor p corregido 0.08547711 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85059569 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2304,17 +2304,17 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9609339422472636</v>
+        <v>0.954734208365984</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7964679620055042</v>
+        <v>0.7245680471579434</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96093394 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95473421 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8532940013469975</v>
+        <v>0.8532940013469972</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06356782870506517</v>
+        <v>0.06356782870506446</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2398,17 +2398,17 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5485890125332255</v>
+        <v>0.5485890125332946</v>
       </c>
       <c r="H42" t="n">
-        <v>1.357059988690574e-05</v>
+        <v>1.357059988693132e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003296931678351923</v>
+        <v>0.00325622881812524</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.54858901 y un valor p corregido 0.00329693 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.54858901 y un valor p corregido 0.00325623 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6929364825875284</v>
+        <v>0.6929364825875397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0007234191838915021</v>
+        <v>0.0007234191838917288</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1511946094333239</v>
+        <v>0.1287686147327277</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.69293648 y un valor p corregido 0.15119461 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.69293648 y un valor p corregido 0.12876861 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9164572970857069</v>
+        <v>0.5941735453625706</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3283520392515105</v>
+        <v>4.713463965953735e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0.01112377495965081</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.9164573 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.59417355 y un valor p corregido 0.01112377 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -2539,17 +2539,17 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6045508436510959</v>
+        <v>0.6045508436510707</v>
       </c>
       <c r="H45" t="n">
-        <v>6.266589647743609e-05</v>
+        <v>6.266589647739236e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01460115387924261</v>
+        <v>0.01435049029332285</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.60455084 y un valor p corregido 0.01460115 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.60455084 y un valor p corregido 0.01435049 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2586,17 +2586,17 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7663099743352161</v>
+        <v>0.9373417200387458</v>
       </c>
       <c r="H46" t="n">
-        <v>0.005638817775431053</v>
+        <v>0.5238308399534244</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.76630997 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93734172 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2633,17 +2633,17 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7838717094964462</v>
+        <v>0.9028418135506759</v>
       </c>
       <c r="H47" t="n">
-        <v>0.009228025834346783</v>
+        <v>0.2353451676121521</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.78387171 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.90284181 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2680,17 +2680,17 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9414762205040182</v>
+        <v>0.8839359276963783</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5695538209762387</v>
+        <v>0.1447545367309121</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94147622 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.88393593 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2727,17 +2727,17 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9530083772494606</v>
+        <v>0.9719729147149342</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7041483411548707</v>
+        <v>0.9085102918147903</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95300838 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.97197291 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2774,17 +2774,17 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9088208712080249</v>
+        <v>0.9449687090690128</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2729894891374045</v>
+        <v>0.6095003027855972</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.90882087 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.94496871 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2821,17 +2821,17 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8293428490309154</v>
+        <v>0.8349172250652943</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03285641434779404</v>
+        <v>0.03834348411564367</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.82934285 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.83491723 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2868,17 +2868,17 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7634648211041118</v>
+        <v>0.9245981614027604</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005206245152162199</v>
+        <v>0.3969048907222851</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.76346482 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.92459816 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2915,17 +2915,17 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9050956022104353</v>
+        <v>0.9196762377192034</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2489719260499097</v>
+        <v>0.3542625040946359</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9050956 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.91967624 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2962,17 +2962,17 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8383848995148894</v>
+        <v>0.8753319100185689</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0422005359962435</v>
+        <v>0.115286237061455</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.8383849 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.87533191 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3009,17 +3009,17 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8773458638693272</v>
+        <v>0.8597251003932681</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1216305584297804</v>
+        <v>0.07574118928368699</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.87734586 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.8597251 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3056,17 +3056,17 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9690165840163171</v>
+        <v>0.916933628715221</v>
       </c>
       <c r="H56" t="n">
-        <v>0.881580363745911</v>
+        <v>0.3320883138600604</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96901658 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91693363 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3103,17 +3103,17 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9661213901868149</v>
+        <v>0.896205464199117</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8527412209394964</v>
+        <v>0.1989525052637197</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96612139 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89620546 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3150,22 +3150,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6582967579629654</v>
+        <v>0.6048899888787751</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0002761785111540206</v>
+        <v>6.325245759331693e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06075927245388454</v>
+        <v>0.01442156033127626</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.65829676 y un valor p corregido 0.06075927 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.60488999 y un valor p corregido 0.01442156 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3203,11 @@
         <v>0.003736612704050395</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7547957662181797</v>
+        <v>0.6128044834642647</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.75163978 y un valor p corregido 0.75479577 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.75163978 y un valor p corregido 0.61280448 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6498682936762903</v>
+        <v>0.7813698235402536</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0002186674968535206</v>
+        <v>0.008602863316109184</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04941885428889566</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.64986829 y un valor p corregido 0.04941885 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.78136982 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -3291,17 +3291,17 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5101190088509733</v>
+        <v>0.3668608145687482</v>
       </c>
       <c r="H61" t="n">
-        <v>4.780198075887361e-06</v>
+        <v>1.034482239657608e-07</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00119504951897184</v>
+        <v>2.649749048460251e-05</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.51011901 y un valor p corregido 0.00119505 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.36686081 y un valor p corregido 0.0000265 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3338,17 +3338,17 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.958224893422342</v>
+        <v>0.7912418972579135</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7654574117390437</v>
+        <v>0.01134540354109745</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.95822489 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.7912419 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3385,17 +3385,17 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7242258876023584</v>
+        <v>0.8330798509563263</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001733498400617454</v>
+        <v>0.03644217958419475</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3571006705271956</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.72422589 y un valor p corregido 0.35710067 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.83307985 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3432,17 +3432,17 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9673714640645361</v>
+        <v>0.9272340025375891</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8654618577781086</v>
+        <v>0.421243544693477</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96737146 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.927234 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3479,17 +3479,17 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.954584571762818</v>
+        <v>0.9583600098528051</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7228008349259826</v>
+        <v>0.7670224795203513</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95458457 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95836001 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3526,17 +3526,17 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8815192618598815</v>
+        <v>0.9033625361063116</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1358354979695459</v>
+        <v>0.2384344476953124</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.88151926 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.90336254 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3573,17 +3573,17 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9134955992392424</v>
+        <v>0.8486458314836236</v>
       </c>
       <c r="H67" t="n">
-        <v>0.305875423546575</v>
+        <v>0.05597234254594957</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9134956 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.84864583 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3620,17 +3620,17 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9537689423114646</v>
+        <v>0.9630905104382163</v>
       </c>
       <c r="H68" t="n">
-        <v>0.713155972402904</v>
+        <v>0.8204553573231181</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95376894 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96309051 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3667,17 +3667,17 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9368083035342464</v>
+        <v>0.9451143445768454</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5180752519239513</v>
+        <v>0.6111876902821953</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9368083 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.94511434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3714,17 +3714,17 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8116357632844596</v>
+        <v>0.8850839442212046</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02007090388879049</v>
+        <v>0.1491793723446654</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.81163576 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.88508394 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3761,17 +3761,17 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9147341605228269</v>
+        <v>0.9397070329043553</v>
       </c>
       <c r="H71" t="n">
-        <v>0.315117601419647</v>
+        <v>0.5497580647515992</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91473416 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.93970703 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3808,17 +3808,17 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9217553988889041</v>
+        <v>0.9062101803390998</v>
       </c>
       <c r="H72" t="n">
-        <v>0.371828637126266</v>
+        <v>0.255959842990899</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.9217554 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.90621018 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3855,17 +3855,17 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9645426933546831</v>
+        <v>0.8939579170911146</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8361585991668856</v>
+        <v>0.1878192213844392</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96454269 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89395792 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3902,17 +3902,17 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8094117130582242</v>
+        <v>0.7227259027841763</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01886245214682669</v>
+        <v>0.001662249445990332</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0.2809201563723661</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.80941171 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.7227259 y un valor p corregido 0.28092016 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3949,17 +3949,17 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8904995873721335</v>
+        <v>0.938882857467449</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1717865377385502</v>
+        <v>0.5406509727313198</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.89049959 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.93888286 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3996,17 +3996,17 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8959493948010433</v>
+        <v>0.8644132065617171</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1976547623025364</v>
+        <v>0.08599975035919878</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.89594939 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.86441321 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4043,17 +4043,17 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9556834521235635</v>
+        <v>0.9576376272131374</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7357576702783878</v>
+        <v>0.758636507397858</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95568345 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95763763 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4184,17 +4184,17 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5327326693291792</v>
+        <v>0.5337280285206709</v>
       </c>
       <c r="H80" t="n">
-        <v>8.820151050176465e-06</v>
+        <v>9.061665127076576e-06</v>
       </c>
       <c r="I80" t="n">
-        <v>0.002160937007293234</v>
+        <v>0.002201984625879608</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.53273267 y un valor p corregido 0.00216094 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.53372803 y un valor p corregido 0.00220198 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4231,22 +4231,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6512109108111934</v>
+        <v>0.602521239656481</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0002269489654983571</v>
+        <v>5.926825909696666e-05</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05061739931637366</v>
+        <v>0.0136909678513993</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.65121091 y un valor p corregido 0.0506174 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.60252124 y un valor p corregido 0.01369097 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -4278,17 +4278,17 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5579220463511132</v>
+        <v>0.3657206276976523</v>
       </c>
       <c r="H82" t="n">
-        <v>1.749728747837721e-05</v>
+        <v>1.003692821386459e-07</v>
       </c>
       <c r="I82" t="n">
-        <v>0.004181851707332153</v>
+        <v>2.649749048460251e-05</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.55792205 y un valor p corregido 0.00418185 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.36572063 y un valor p corregido 0.0000265 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4325,22 +4325,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5987202133158579</v>
+        <v>0.8142222886816942</v>
       </c>
       <c r="H83" t="n">
-        <v>5.339571614221292e-05</v>
+        <v>0.02157304020611541</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01249459757727782</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.59872021 y un valor p corregido 0.0124946 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.81422229 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9701306920407472</v>
+        <v>0.9492824946671458</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8920543731746771</v>
+        <v>0.6600184716664934</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.97013069 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94928249 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4419,10 +4419,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8290615705979367</v>
+        <v>0.8290615705979263</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03260101503751677</v>
+        <v>0.03260101503750738</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -4519,11 +4519,11 @@
         <v>7.246099493471195e-05</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01681095082485317</v>
+        <v>0.01644864585017961</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.60983532 y un valor p corregido 0.01681095 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.60983532 y un valor p corregido 0.01644865 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4560,22 +4560,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7969588664978084</v>
+        <v>0.599645640340116</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01331549288412089</v>
+        <v>5.476922516161638e-05</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0.01276122946265662</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.79695887 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.59964564 y un valor p corregido 0.01276123 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -4607,17 +4607,17 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5316476500573843</v>
+        <v>0.5316476500573841</v>
       </c>
       <c r="H89" t="n">
-        <v>8.564251663186619e-06</v>
+        <v>8.564251663186553e-06</v>
       </c>
       <c r="I89" t="n">
-        <v>0.002106805909143908</v>
+        <v>0.002089677405817519</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.53164765 y un valor p corregido 0.00210681 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.53164765 y un valor p corregido 0.00208968 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4654,17 +4654,17 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9081236330202758</v>
+        <v>0.9448696827730059</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2683494792657687</v>
+        <v>0.6083538292764725</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.90812363 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.94486968 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4701,17 +4701,17 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8281246288087851</v>
+        <v>0.8344178524235903</v>
       </c>
       <c r="H91" t="n">
-        <v>0.03176428861965825</v>
+        <v>0.03781730992580114</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.82812463 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.83441785 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -4748,17 +4748,17 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7561368568326026</v>
+        <v>0.9189840823897213</v>
       </c>
       <c r="H92" t="n">
-        <v>0.004238896726728442</v>
+        <v>0.3485596459757597</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8401293256980022</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.75613686 y un valor p corregido 0.84012933 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91898408 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4795,17 +4795,17 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9046662766518313</v>
+        <v>0.9196035523200099</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2463245624365336</v>
+        <v>0.3536602324846794</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.90466628 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.91960355 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -4842,17 +4842,17 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7655819878127116</v>
+        <v>0.9191795437878805</v>
       </c>
       <c r="H94" t="n">
-        <v>0.005524827322918612</v>
+        <v>0.3501627855134681</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.76558199 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.91917954 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -4889,17 +4889,17 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7834131379298024</v>
+        <v>0.9025745165599602</v>
       </c>
       <c r="H95" t="n">
-        <v>0.009110141287272104</v>
+        <v>0.2337730109968445</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.78341314 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.90257452 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -4936,17 +4936,17 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9425680273893774</v>
+        <v>0.8784212778840439</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5819263551101187</v>
+        <v>0.1251514050610004</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94256803 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.87842128 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -4983,17 +4983,17 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9519996217573748</v>
+        <v>0.9715514957316179</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6921908705771227</v>
+        <v>0.9048456016646688</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95199962 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9715515 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5036,11 +5036,11 @@
         <v>0.0002761813585089672</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06075927245388454</v>
+        <v>0.06020753615495485</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.65829713 y un valor p corregido 0.06075927 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.65829713 y un valor p corregido 0.06020754 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5124,17 +5124,17 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.509274852063527</v>
+        <v>0.3657206276976523</v>
       </c>
       <c r="H100" t="n">
-        <v>4.672333118392027e-06</v>
+        <v>1.003692821386459e-07</v>
       </c>
       <c r="I100" t="n">
-        <v>0.001182100278953183</v>
+        <v>2.649749048460251e-05</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.50927485 y un valor p corregido 0.0011821 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.36572063 y un valor p corregido 0.0000265 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5224,11 +5224,11 @@
         <v>0.0002761813585089672</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06075927245388454</v>
+        <v>0.06020753615495485</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.65829713 y un valor p corregido 0.06075927 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.65829713 y un valor p corregido 0.06020754 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5312,17 +5312,17 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5941735453625706</v>
+        <v>0.6496887307091848</v>
       </c>
       <c r="H104" t="n">
-        <v>4.713463965953735e-05</v>
+        <v>0.0002175832184269684</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01117090959931035</v>
+        <v>0.04830347449078</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.59417355 y un valor p corregido 0.01117091 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.64968873 y un valor p corregido 0.04830347 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -5365,11 +5365,11 @@
         <v>0.006009969598146352</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0.95558516610527</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.76858227 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.76858227 y un valor p corregido 0.95558517 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5406,17 +5406,17 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6661255745092829</v>
+        <v>0.913279326149798</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0003431679958548715</v>
+        <v>0.3042846125523977</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0744674551005071</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.66612557 y un valor p corregido 0.07446746 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.91327933 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5453,17 +5453,17 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9129846176645279</v>
+        <v>0.8080039439183969</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3021278336760192</v>
+        <v>0.01813510277114342</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91298462 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.80800394 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -5500,17 +5500,17 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9097016267377703</v>
+        <v>0.9440649941823126</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2789477982656088</v>
+        <v>0.5990650929387947</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.90970163 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94406499 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -5547,17 +5547,17 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.959748216504444</v>
+        <v>0.9326644376398964</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7829975214582665</v>
+        <v>0.474605568973121</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95974822 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93266444 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -5594,17 +5594,17 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9478886818799119</v>
+        <v>0.7987832463310434</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6435917265620366</v>
+        <v>0.01401315613457386</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.94788868 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.79878325 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -5641,17 +5641,17 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7746972951787608</v>
+        <v>0.8991458882590756</v>
       </c>
       <c r="H111" t="n">
-        <v>0.007134609401603754</v>
+        <v>0.2144103165078594</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.7746973 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.89914589 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7941554799062512</v>
+        <v>0.9530006922998017</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01231020518080347</v>
+        <v>0.7040572782468293</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.79415548 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95300069 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -5735,17 +5735,17 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9503811775539235</v>
+        <v>0.9145975353977538</v>
       </c>
       <c r="H113" t="n">
-        <v>0.673011950979903</v>
+        <v>0.3140870469670999</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95038118 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.91459754 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -5782,17 +5782,17 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8939241015752671</v>
+        <v>0.8965680093437371</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1876560958779975</v>
+        <v>0.2008029369369081</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.8939241 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.89656801 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -5829,17 +5829,17 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6733934056329702</v>
+        <v>0.67339340563297</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0004199249420279283</v>
+        <v>0.000419924942027925</v>
       </c>
       <c r="I115" t="n">
-        <v>0.08902408770992079</v>
+        <v>0.08524476323166878</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.67339341 y un valor p corregido 0.08902409 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.67339341 y un valor p corregido 0.08524476 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5876,22 +5876,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6702296886336609</v>
+        <v>0.6038366106532395</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0003845903011075083</v>
+        <v>6.144844937906193e-05</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0830715050392218</v>
+        <v>0.01413314335718424</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67022969 y un valor p corregido 0.08307151 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.60383661 y un valor p corregido 0.01413314 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -5923,17 +5923,17 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8024939688450428</v>
+        <v>0.8401305999518426</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01554626226270242</v>
+        <v>0.0442835661646702</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.80249397 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8401306 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -5970,17 +5970,17 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7735368492887486</v>
+        <v>0.8719021460941101</v>
       </c>
       <c r="H118" t="n">
-        <v>0.006906110571676764</v>
+        <v>0.1051951899337833</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77353685 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.87190215 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6064,17 +6064,17 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9559628317934427</v>
+        <v>0.7017306746440231</v>
       </c>
       <c r="H120" t="n">
-        <v>0.7390429307654263</v>
+        <v>0.0009244984226459982</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0.1627117223856957</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95596283 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.70173067 y un valor p corregido 0.16271172 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6117,11 +6117,11 @@
         <v>4.672333118392027e-06</v>
       </c>
       <c r="I121" t="n">
-        <v>0.001182100278953183</v>
+        <v>0.001158738613361223</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.50927485 y un valor p corregido 0.0011821 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.50927485 y un valor p corregido 0.00115874 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6205,17 +6205,17 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5120028577789424</v>
+        <v>0.5120028577789426</v>
       </c>
       <c r="H123" t="n">
         <v>5.030033214627986e-06</v>
       </c>
       <c r="I123" t="n">
-        <v>0.001252478270442368</v>
+        <v>0.001237388170798485</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.51200286 y un valor p corregido 0.00125248 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.51200286 y un valor p corregido 0.00123739 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6252,22 +6252,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6508940037610912</v>
+        <v>0.6508940037610916</v>
       </c>
       <c r="H124" t="n">
-        <v>0.000224966219183883</v>
+        <v>0.0002249662191838849</v>
       </c>
       <c r="I124" t="n">
-        <v>0.05061739931637366</v>
+        <v>0.04949256822045468</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.650894 y un valor p corregido 0.0506174 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.650894 y un valor p corregido 0.04949257 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6346,22 +6346,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7517589388127365</v>
+        <v>0.6378370719098156</v>
       </c>
       <c r="H126" t="n">
-        <v>0.003749119644712424</v>
+        <v>0.0001567761913398465</v>
       </c>
       <c r="I126" t="n">
-        <v>0.7547957662181797</v>
+        <v>0.03527464305146547</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.75175894 y un valor p corregido 0.75479577 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.63783707 y un valor p corregido 0.03527464 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -6393,10 +6393,10 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9108819425654323</v>
+        <v>0.9108819425654254</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2871041507155876</v>
+        <v>0.2871041507155398</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -6440,17 +6440,17 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7811140349057886</v>
+        <v>0.7509642805709127</v>
       </c>
       <c r="H128" t="n">
-        <v>0.008541378587386895</v>
+        <v>0.003666497244994613</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0.6049720454241112</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.78111403 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.75096428 y un valor p corregido 0.60497205 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -6540,11 +6540,11 @@
         <v>1.499246523198827e-05</v>
       </c>
       <c r="I130" t="n">
-        <v>0.003613184120909173</v>
+        <v>0.003568206725213208</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.55225 y un valor p corregido 0.00361318 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.55225 y un valor p corregido 0.00356821 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -6573,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6581,22 +6581,22 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6512492327526579</v>
+        <v>0.651249232752658</v>
       </c>
       <c r="H131" t="n">
         <v>0.0002271899172606269</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05061739931637366</v>
+        <v>0.0497545918800773</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.65124923 y un valor p corregido 0.0506174 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.65124923 y un valor p corregido 0.04975459 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6628,17 +6628,17 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.3657206276976523</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1.003692821386459e-07</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>2.649749048460251e-05</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.36572063 y un valor p corregido 0.0000265 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>No se puede realizar la prueba de normalidad de Shapiro-Wilk debido a que las diferencias entre los pares tienen varianza 0, asimismo, se interpreta que los resultados son iguales en cada par</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -6681,11 +6681,11 @@
         <v>4.672333118392027e-06</v>
       </c>
       <c r="I133" t="n">
-        <v>0.001182100278953183</v>
+        <v>0.001158738613361223</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.50927485 y un valor p corregido 0.0011821 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.50927485 y un valor p corregido 0.00115874 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -6722,17 +6722,17 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7777954579979476</v>
+        <v>0.7772183184276223</v>
       </c>
       <c r="H134" t="n">
-        <v>0.007782328931203347</v>
+        <v>0.007657370745832012</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77779546 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77721832 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -6769,17 +6769,17 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8571217073879218</v>
+        <v>0.9523747266343275</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07056396969417099</v>
+        <v>0.6966379172048618</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85712171 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.95237473 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -6816,17 +6816,17 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9638853274018083</v>
+        <v>0.9374008767768158</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8290997666470318</v>
+        <v>0.5244712803832825</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96388533 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93740088 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -6863,17 +6863,17 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9395150610117867</v>
+        <v>0.8989426563361135</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5476300449296314</v>
+        <v>0.2133084809195436</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93951506 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89894266 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -6910,17 +6910,17 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7770424640962521</v>
+        <v>0.8380085640347659</v>
       </c>
       <c r="H138" t="n">
-        <v>0.007619695707528107</v>
+        <v>0.04176421044077779</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.77704246 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.83800856 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -6957,17 +6957,17 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8562123061307187</v>
+        <v>0.9521061231681502</v>
       </c>
       <c r="H139" t="n">
-        <v>0.06883730287104356</v>
+        <v>0.6934535214036421</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85621231 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.95210612 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -7004,17 +7004,17 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9652851083358359</v>
+        <v>0.9346929938103389</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8440247151982254</v>
+        <v>0.4956031255966387</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96528511 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93469299 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -7051,17 +7051,17 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9393135646167768</v>
+        <v>0.8996950197399018</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5454008183035725</v>
+        <v>0.2174127757510928</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93931356 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.89969502 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -7098,17 +7098,17 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8564871863259454</v>
+        <v>0.8424152633988404</v>
       </c>
       <c r="H142" t="n">
-        <v>0.069354863846745</v>
+        <v>0.04716218707646991</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.85648719 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.84241526 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -7145,17 +7145,17 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8323127227320904</v>
+        <v>0.8330846406182328</v>
       </c>
       <c r="H143" t="n">
-        <v>0.03567603537470748</v>
+        <v>0.03644701349914096</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.83231272 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.83308464 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -7192,17 +7192,17 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9472515662177585</v>
+        <v>0.9143392904444178</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6361113273870306</v>
+        <v>0.3121466249331952</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94725157 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91433929 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -7239,17 +7239,17 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9273099458796006</v>
+        <v>0.9608176611396617</v>
       </c>
       <c r="H145" t="n">
-        <v>0.4219601673249831</v>
+        <v>0.7951549440772404</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.92730995 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96081766 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -7286,17 +7286,17 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8151180607804835</v>
+        <v>0.8205604408297722</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02211879020572123</v>
+        <v>0.02574056120230533</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.81511806 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.82056044 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7942203491474589</v>
+        <v>0.7942203491474237</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0123325905865372</v>
+        <v>0.01233259058652503</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -7380,17 +7380,17 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.80250631059204</v>
+        <v>0.8408563207867468</v>
       </c>
       <c r="H148" t="n">
-        <v>0.01555162974988867</v>
+        <v>0.04517882344943341</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.80250631 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.84085632 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -7427,17 +7427,17 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7562340659320294</v>
+        <v>0.7135867051337903</v>
       </c>
       <c r="H149" t="n">
-        <v>0.004250470005534445</v>
+        <v>0.001287378154790259</v>
       </c>
       <c r="I149" t="n">
-        <v>0.8401293256980022</v>
+        <v>0.2215616359610455</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.75623407 y un valor p corregido 0.84012933 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.71358671 y un valor p corregido 0.22156164 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -7474,17 +7474,17 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9283725010629624</v>
+        <v>0.7569263831090525</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4320762785079302</v>
+        <v>0.004333814279737892</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0.7020779133175384</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.9283725 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.75692638 y un valor p corregido 0.70207791 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -7521,17 +7521,17 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8084525218004821</v>
+        <v>0.8048767689121432</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01836379710927503</v>
+        <v>0.01661742842565298</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.80845252 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.80487677 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -7568,17 +7568,17 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.93170165869167</v>
+        <v>0.9466833346457262</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4648372037463397</v>
+        <v>0.629457622336974</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93170166 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94668333 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -7615,17 +7615,17 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9398893523488738</v>
+        <v>0.9360010432764362</v>
       </c>
       <c r="H153" t="n">
-        <v>0.5517828141694676</v>
+        <v>0.5094319404657121</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93988935 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93600104 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -7662,17 +7662,17 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9210295306837962</v>
+        <v>0.845058113967097</v>
       </c>
       <c r="H154" t="n">
-        <v>0.3656217097307498</v>
+        <v>0.05072046279130109</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.92102953 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.84505811 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -7709,17 +7709,17 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8537437200946846</v>
+        <v>0.7986368416166647</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06435362783954547</v>
+        <v>0.0139558526324511</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85374372 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.79863684 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -7756,17 +7756,17 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.915573824590543</v>
+        <v>0.9580036842274735</v>
       </c>
       <c r="H156" t="n">
-        <v>0.3215116229281951</v>
+        <v>0.7628915997544077</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.91557382 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95800368 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -7803,17 +7803,17 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9297622819935939</v>
+        <v>0.9668592827495303</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4455580237493064</v>
+        <v>0.8602966388434212</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.92976228 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96685928 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -7850,17 +7850,17 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7898736367671175</v>
+        <v>0.8818605988403865</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01091867985738413</v>
+        <v>0.1370634295694894</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.78987364 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.8818606 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -7897,17 +7897,17 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9140692968757054</v>
+        <v>0.9515755855114667</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3101284018074707</v>
+        <v>0.6871637866666963</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9140693 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.95157559 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -7944,17 +7944,17 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8997639426457889</v>
+        <v>0.9095723697112125</v>
       </c>
       <c r="H160" t="n">
-        <v>0.2177922425780455</v>
+        <v>0.2780665578073657</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.89976394 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.90957237 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -7991,17 +7991,17 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9674610175823478</v>
+        <v>0.9465027740747518</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8663580884783324</v>
+        <v>0.627347183536817</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96746102 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.94650277 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -8038,17 +8038,17 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8863075508100582</v>
+        <v>0.9084455351445562</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1540331822863408</v>
+        <v>0.2704832921627198</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.88630755 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.90844554 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -8085,17 +8085,17 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9104734333328017</v>
+        <v>0.9442619852726051</v>
       </c>
       <c r="H163" t="n">
-        <v>0.2842588661375537</v>
+        <v>0.6013343706173269</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91047343 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.94426199 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -8132,17 +8132,17 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.908980123868034</v>
+        <v>0.8009326374615318</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2740587866249405</v>
+        <v>0.01488186559607481</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.90898012 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.80093264 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -8179,17 +8179,17 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9274666053488264</v>
+        <v>0.9374699410977624</v>
       </c>
       <c r="H165" t="n">
-        <v>0.4234411540274651</v>
+        <v>0.5252195172514447</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.92746661 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93746994 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -8273,17 +8273,17 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5984888483276438</v>
+        <v>0.5984888483276429</v>
       </c>
       <c r="H167" t="n">
-        <v>5.305777670498985e-05</v>
+        <v>5.30577767049886e-05</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01246857752567261</v>
+        <v>0.01241551974896733</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.59848885 y un valor p corregido 0.01246858 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.59848885 y un valor p corregido 0.01241552 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -8320,17 +8320,17 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6509517283325115</v>
+        <v>0.6897202669896925</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0002253260736197816</v>
+        <v>0.0006614058427576326</v>
       </c>
       <c r="I168" t="n">
-        <v>0.05061739931637366</v>
+        <v>0.1183916458536162</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.65095173 y un valor p corregido 0.0506174 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.68972027 y un valor p corregido 0.11839165 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8367,22 +8367,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7291500090194517</v>
+        <v>0.6476302511479851</v>
       </c>
       <c r="H169" t="n">
-        <v>0.001989662581648601</v>
+        <v>0.0002055329633902687</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4078808292379633</v>
+        <v>0.0460393837994202</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.72915001 y un valor p corregido 0.40788083 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.64763025 y un valor p corregido 0.04603938 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8414,22 +8414,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.614030333096632</v>
+        <v>0.7357884380253443</v>
       </c>
       <c r="H170" t="n">
-        <v>8.132329479663692e-05</v>
+        <v>0.002396176480510236</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01870435780322649</v>
+        <v>0.4001614722452094</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.61403033 y un valor p corregido 0.01870436 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.73578844 y un valor p corregido 0.40016147 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -8461,17 +8461,17 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6721290428216669</v>
+        <v>0.850936872985926</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0004054278766951176</v>
+        <v>0.05959891899024421</v>
       </c>
       <c r="I171" t="n">
-        <v>0.08635613773606006</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.67212904 y un valor p corregido 0.08635614 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85093687 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -8508,17 +8508,17 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9602449344103892</v>
+        <v>0.9540437138240663</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7886619122741595</v>
+        <v>0.7164072354695018</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96024493 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.95404371 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8532936990955438</v>
+        <v>0.8532936990955429</v>
       </c>
       <c r="H173" t="n">
-        <v>0.06356730371583003</v>
+        <v>0.06356730371582833</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -8602,17 +8602,17 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.548580941546478</v>
+        <v>0.5485809415464769</v>
       </c>
       <c r="H174" t="n">
-        <v>1.356762007552231e-05</v>
+        <v>1.356762007552183e-05</v>
       </c>
       <c r="I174" t="n">
-        <v>0.003296931678351923</v>
+        <v>0.00325622881812524</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.54858094 y un valor p corregido 0.00329693 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.54858094 y un valor p corregido 0.00325623 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -8649,17 +8649,17 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6973924254641199</v>
+        <v>0.6973924254641206</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0008191143622486648</v>
+        <v>0.000819114362248676</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1703757873477223</v>
+        <v>0.1449832421180156</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.69739243 y un valor p corregido 0.17037579 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.69739243 y un valor p corregido 0.14498324 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -8688,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8696,22 +8696,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9214490940023736</v>
+        <v>0.5997163843303108</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3691996835597338</v>
+        <v>5.487567410936802e-05</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0.01276122946265662</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.92144909 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.59971638 y un valor p corregido 0.01276123 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -8743,17 +8743,17 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.615526990056485</v>
+        <v>0.6155269900564839</v>
       </c>
       <c r="H177" t="n">
-        <v>8.474259807487003e-05</v>
+        <v>8.47425980748674e-05</v>
       </c>
       <c r="I177" t="n">
-        <v>0.01940605495914524</v>
+        <v>0.01915182716492003</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.61552699 y un valor p corregido 0.01940605 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.61552699 y un valor p corregido 0.01915183 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -8790,17 +8790,17 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -8837,17 +8837,17 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H179" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -8884,17 +8884,17 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -8931,17 +8931,17 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -8978,17 +8978,17 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H182" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -9025,17 +9025,17 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -9072,17 +9072,17 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H184" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -9119,17 +9119,17 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -9166,17 +9166,17 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H186" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -9213,17 +9213,17 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H187" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -9260,17 +9260,17 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -9307,17 +9307,17 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -9354,17 +9354,17 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H190" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -9401,17 +9401,17 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -9448,17 +9448,17 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H192" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -9495,17 +9495,17 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -9542,17 +9542,17 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H194" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -9589,17 +9589,17 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -9636,17 +9636,17 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -9683,17 +9683,17 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H197" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -9730,17 +9730,17 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H198" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -9777,17 +9777,17 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -9824,17 +9824,17 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H200" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -9871,17 +9871,17 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H201" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -9918,17 +9918,17 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H202" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -9965,17 +9965,17 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H203" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -10012,17 +10012,17 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H204" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -10059,17 +10059,17 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H205" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -10106,17 +10106,17 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H206" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -10153,17 +10153,17 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H207" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -10200,17 +10200,17 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H208" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -10247,17 +10247,17 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H209" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -10294,17 +10294,17 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H210" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -10341,17 +10341,17 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H211" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -10388,17 +10388,17 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H212" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -10435,17 +10435,17 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H213" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -10482,17 +10482,17 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H214" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -10529,17 +10529,17 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H215" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -10576,17 +10576,17 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H216" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -10623,17 +10623,17 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H217" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -10670,17 +10670,17 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9321331818828427</v>
+        <v>0.6834582788570767</v>
       </c>
       <c r="H218" t="n">
-        <v>0.4691994589291922</v>
+        <v>0.0005555708293530773</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0.1061140284064378</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.93213318 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68345828 y un valor p corregido 0.10611403 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -10717,17 +10717,17 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9369065981650436</v>
+        <v>0.6690646995261738</v>
       </c>
       <c r="H219" t="n">
-        <v>0.5191332329175451</v>
+        <v>0.0003723457621298602</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0.08005433885791995</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.9369066 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.6690647 y un valor p corregido 0.08005434 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -10764,17 +10764,17 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9335206368104652</v>
+        <v>0.674793751047668</v>
       </c>
       <c r="H220" t="n">
-        <v>0.4834001842595803</v>
+        <v>0.0004365905013364484</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0.08819128126996258</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.93352064 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67479375 y un valor p corregido 0.08819128 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -10811,17 +10811,17 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.8503433974391893</v>
+        <v>0.7873451759083276</v>
       </c>
       <c r="H221" t="n">
-        <v>0.0586381595970211</v>
+        <v>0.01017175920403881</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.8503434 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.78734518 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -10858,22 +10858,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6872459149626976</v>
+        <v>0.4721854683966231</v>
       </c>
       <c r="H222" t="n">
-        <v>0.0006173569526985816</v>
+        <v>1.719147856642234e-06</v>
       </c>
       <c r="I222" t="n">
-        <v>0.1302623170194007</v>
+        <v>0.0004297869641605584</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68724591 y un valor p corregido 0.13026232 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.47218547 y un valor p corregido 0.00042979 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -10905,17 +10905,17 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9419649746602531</v>
+        <v>0.9464435620809474</v>
       </c>
       <c r="H223" t="n">
-        <v>0.5750784443570829</v>
+        <v>0.6266555187723086</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.94196497 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.94644356 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -10952,17 +10952,17 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8279591677162074</v>
+        <v>0.9436327965964283</v>
       </c>
       <c r="H224" t="n">
-        <v>0.03161873732762787</v>
+        <v>0.5940972961271112</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.82795917 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.9436328 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -10999,17 +10999,17 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9713441334196237</v>
+        <v>0.8494170526071152</v>
       </c>
       <c r="H225" t="n">
-        <v>0.9030201625969544</v>
+        <v>0.05716851934753095</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.97134413 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.84941705 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -11046,17 +11046,17 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6872459149626976</v>
+        <v>0.6727729340265904</v>
       </c>
       <c r="H226" t="n">
-        <v>0.0006173569526985816</v>
+        <v>0.0004127466628739619</v>
       </c>
       <c r="I226" t="n">
-        <v>0.1302623170194007</v>
+        <v>0.08420031922628823</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.68724591 y un valor p corregido 0.13026232 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.67277293 y un valor p corregido 0.08420032 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -11093,17 +11093,17 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9419649746602531</v>
+        <v>0.9721081901827724</v>
       </c>
       <c r="H227" t="n">
-        <v>0.5750784443570829</v>
+        <v>0.9096736583691125</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.94196497 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.97210819 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -11140,17 +11140,17 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8279591677162074</v>
+        <v>0.8526226011418518</v>
       </c>
       <c r="H228" t="n">
-        <v>0.03161873732762787</v>
+        <v>0.06241195513046816</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.82795917 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.8526226 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -11187,17 +11187,17 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9713441334196237</v>
+        <v>0.9520122097505854</v>
       </c>
       <c r="H229" t="n">
-        <v>0.9030201625969544</v>
+        <v>0.6923401104650767</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.97134413 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95201221 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -11234,17 +11234,17 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5344505529326882</v>
+        <v>0.5387911513045753</v>
       </c>
       <c r="H230" t="n">
-        <v>9.241136325211938e-06</v>
+        <v>1.039717038418078e-05</v>
       </c>
       <c r="I230" t="n">
-        <v>0.002254837263351713</v>
+        <v>0.002516115232971748</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.53445055 y un valor p corregido 0.00225484 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.53879115 y un valor p corregido 0.00251612 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -11281,17 +11281,17 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8539529868840456</v>
+        <v>0.8539501167082535</v>
       </c>
       <c r="H231" t="n">
-        <v>0.06472248158521705</v>
+        <v>0.06471740879431022</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85395299 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85395012 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -11328,17 +11328,17 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7144958280860946</v>
+        <v>0.7658612163188945</v>
       </c>
       <c r="H232" t="n">
-        <v>0.001320509695605048</v>
+        <v>0.005568274794773736</v>
       </c>
       <c r="I232" t="n">
-        <v>0.273345506990245</v>
+        <v>0.8909239671637978</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.71449583 y un valor p corregido 0.27334551 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.76586122 y un valor p corregido 0.89092397 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -11375,17 +11375,17 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.8580380685359307</v>
+        <v>0.8704520292424314</v>
       </c>
       <c r="H233" t="n">
-        <v>0.0723461087032899</v>
+        <v>0.1011855347596042</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.85803807 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.87045203 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11516,22 +11516,22 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8093547582410516</v>
+        <v>0.5454812699012129</v>
       </c>
       <c r="H236" t="n">
-        <v>0.01883247169265352</v>
+        <v>1.24705430537328e-05</v>
       </c>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>0.003005400875949604</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.80935476 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.54548127 y un valor p corregido 0.0030054 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -11563,17 +11563,17 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8374818204080992</v>
+        <v>0.8372539499720184</v>
       </c>
       <c r="H237" t="n">
-        <v>0.04116091244853576</v>
+        <v>0.04090257756339363</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.83748182 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.83725395 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -11610,17 +11610,17 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.8106993012641032</v>
+        <v>0.8197481413105513</v>
       </c>
       <c r="H238" t="n">
-        <v>0.01955299332247358</v>
+        <v>0.02516494625029883</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.8106993 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.81974814 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -11657,17 +11657,17 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9772468521043319</v>
+        <v>0.9749624933001166</v>
       </c>
       <c r="H239" t="n">
-        <v>0.9487499372996844</v>
+        <v>0.9326621792925822</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.97724685 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.97496249 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -11704,17 +11704,17 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7784193793829159</v>
+        <v>0.9413440102898979</v>
       </c>
       <c r="H240" t="n">
-        <v>0.007919707018078448</v>
+        <v>0.5680634009402272</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.77841938 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.94134401 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -11751,17 +11751,17 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9758556021266119</v>
+        <v>0.9536685561647512</v>
       </c>
       <c r="H241" t="n">
-        <v>0.9392081193203279</v>
+        <v>0.7119676961009798</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9758556 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95366856 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -11798,17 +11798,17 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.8381074291721132</v>
+        <v>0.7176010542864379</v>
       </c>
       <c r="H242" t="n">
-        <v>0.04187840553395288</v>
+        <v>0.001440269023543504</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0.2448457340023956</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.83810743 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.71760105 y un valor p corregido 0.24484573 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -11845,17 +11845,17 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.910164569830832</v>
+        <v>0.9154716089577238</v>
       </c>
       <c r="H243" t="n">
-        <v>0.2821233550988564</v>
+        <v>0.3207276801150654</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91016457 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.91547161 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -11884,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -11892,22 +11892,22 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5564815978182793</v>
+        <v>0.7039380950503641</v>
       </c>
       <c r="H244" t="n">
-        <v>1.682382773949076e-05</v>
+        <v>0.0009832475305168926</v>
       </c>
       <c r="I244" t="n">
-        <v>0.004037718657477782</v>
+        <v>0.1710850703099393</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.5564816 y un valor p corregido 0.00403772 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.7039381 y un valor p corregido 0.17108507 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -11939,17 +11939,17 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.9630205825014309</v>
+        <v>0.9769389042709627</v>
       </c>
       <c r="H245" t="n">
-        <v>0.8196893708514519</v>
+        <v>0.9467081114106193</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.96302058 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9769389 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -11986,17 +11986,17 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7541724612311873</v>
+        <v>0.8426157826865661</v>
       </c>
       <c r="H246" t="n">
-        <v>0.004011669118520061</v>
+        <v>0.04742339234322631</v>
       </c>
       <c r="I246" t="n">
-        <v>0.8023338237040122</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.75417246 y un valor p corregido 0.80233382 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.84261578 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -12033,17 +12033,17 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8568352284508429</v>
+        <v>0.8535404434856173</v>
       </c>
       <c r="H247" t="n">
-        <v>0.07001557300924717</v>
+        <v>0.06399728185360308</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85683523 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.85354044 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -12080,17 +12080,17 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.851418780140144</v>
+        <v>0.7153165027538502</v>
       </c>
       <c r="H248" t="n">
-        <v>0.06039028879635923</v>
+        <v>0.001351152753184234</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0.231047120794504</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.85141878 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.7153165 y un valor p corregido 0.23104712 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -12127,17 +12127,17 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9363283556157898</v>
+        <v>0.9565605203540042</v>
       </c>
       <c r="H249" t="n">
-        <v>0.5129266171526243</v>
+        <v>0.7460565610754162</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.93632836 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95656052 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -12166,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -12174,22 +12174,22 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6474346781531169</v>
+        <v>0.6684903922277405</v>
       </c>
       <c r="H250" t="n">
-        <v>0.00020442360671581</v>
+        <v>0.000366454595568057</v>
       </c>
       <c r="I250" t="n">
-        <v>0.04660858233120469</v>
+        <v>0.07915419264270031</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.64743468 y un valor p corregido 0.04660858 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.66849039 y un valor p corregido 0.07915419 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -12221,17 +12221,17 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9294288697772638</v>
+        <v>0.9267716253393663</v>
       </c>
       <c r="H251" t="n">
-        <v>0.4422980467005477</v>
+        <v>0.4168989279623474</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.92942887 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.92677163 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -12268,17 +12268,17 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9768416458932799</v>
+        <v>0.8302473448450982</v>
       </c>
       <c r="H252" t="n">
-        <v>0.9460548716308977</v>
+        <v>0.03369110593895675</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.97684165 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.83024734 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -12315,17 +12315,17 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.9364614986807254</v>
+        <v>0.9594197776263209</v>
       </c>
       <c r="H253" t="n">
-        <v>0.5143520280042002</v>
+        <v>0.7792363474406026</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9364615 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.95941978 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -12415,11 +12415,11 @@
         <v>0.0002145490571668599</v>
       </c>
       <c r="I255" t="n">
-        <v>0.0487026359768772</v>
+        <v>0.04784443974820975</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.64918143 y un valor p corregido 0.04870264 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.64918143 y un valor p corregido 0.04784444 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -12456,22 +12456,22 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6715086694164139</v>
+        <v>0.5553259491594021</v>
       </c>
       <c r="H256" t="n">
-        <v>0.0003984998701045507</v>
+        <v>1.630242224503833e-05</v>
       </c>
       <c r="I256" t="n">
-        <v>0.08547711047287999</v>
+        <v>0.003863674072074083</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.67150867 y un valor p corregido 0.08547711 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.55532595 y un valor p corregido 0.00386367 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -12503,17 +12503,17 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.7793820376563403</v>
+        <v>0.7285909307073188</v>
       </c>
       <c r="H257" t="n">
-        <v>0.008136433988330026</v>
+        <v>0.001958763367209703</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0.3290722456912302</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.77938204 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.72859093 y un valor p corregido 0.32907225 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -12550,17 +12550,17 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5676995029497545</v>
+        <v>0.4398571039537548</v>
       </c>
       <c r="H258" t="n">
-        <v>2.284464696967166e-05</v>
+        <v>7.224248463397161e-07</v>
       </c>
       <c r="I258" t="n">
-        <v>0.005437025978781856</v>
+        <v>0.0001813286364312687</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.5676995 y un valor p corregido 0.00543703 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.4398571 y un valor p corregido 0.00018133 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -12597,17 +12597,17 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.7630222216078483</v>
+        <v>0.7629711540711651</v>
       </c>
       <c r="H259" t="n">
-        <v>0.005142003304301091</v>
+        <v>0.005134642237589179</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0.8266774002518579</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.76302222 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico W 0.76297115 y un valor p corregido 0.8266774 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -12644,17 +12644,17 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.9642715145697623</v>
+        <v>0.9668140093480745</v>
       </c>
       <c r="H260" t="n">
-        <v>0.8332570055232064</v>
+        <v>0.8598368928613294</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96427151 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico W 0.96681401 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -12691,22 +12691,22 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9199863962838273</v>
+        <v>0.4870772947801856</v>
       </c>
       <c r="H261" t="n">
-        <v>0.3568414451190833</v>
+        <v>2.566613648581846e-06</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0.0006390867984968796</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.9199864 y un valor p corregido 1 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.48707729 y un valor p corregido 0.00063909 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
     </row>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -12738,22 +12738,22 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5165947263126329</v>
+        <v>0.7018038308676859</v>
       </c>
       <c r="H262" t="n">
-        <v>5.69545126662663e-06</v>
+        <v>0.0009263877257411582</v>
       </c>
       <c r="I262" t="n">
-        <v>0.001412471914123404</v>
+        <v>0.1627117223856957</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.51659473 y un valor p corregido 0.00141247 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico W 0.70180383 y un valor p corregido 0.16271172 mayor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que las diferencias entre los pares siguen una distribución normal, asimismo, se optará por el uso de la prueba T de Student.</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
     </row>
@@ -12785,10 +12785,10 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.8373767886517256</v>
+        <v>0.8373767886517222</v>
       </c>
       <c r="H263" t="n">
-        <v>0.04104164080594131</v>
+        <v>0.04104164080593758</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -12832,10 +12832,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.3657206276982229</v>
+        <v>0.3657206276976863</v>
       </c>
       <c r="H264" t="n">
-        <v>1.00369282140163e-07</v>
+        <v>1.003692821387361e-07</v>
       </c>
       <c r="I264" t="n">
         <v>2.649749048460251e-05</v>
@@ -12879,17 +12879,17 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5309944889528017</v>
+        <v>0.5309944889528011</v>
       </c>
       <c r="H265" t="n">
-        <v>8.413820110263241e-06</v>
+        <v>8.41382011026307e-06</v>
       </c>
       <c r="I265" t="n">
-        <v>0.00207821356723502</v>
+        <v>0.002061385927014452</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.53099449 y un valor p corregido 0.00207821 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
+          <t>Se realizó la prueba de normalidad de Shapiro-Wilk sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico W 0.53099449 y un valor p corregido 0.00206139 menor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que las diferencias entre los pares no siguen una distribución normal, asimismo, se optará por el uso de la prueba Wilcoxon.</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
